--- a/gams/python/results/Q18/res_sum_Q_outrO_RA.xlsx
+++ b/gams/python/results/Q18/res_sum_Q_outrO_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5868475-9B07-47AC-BF3E-844AE783F8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88357247-B746-4110-AFA4-111F9A936A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{291068A5-C778-430B-9D31-AC117F9BAA7D}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{291068A5-C778-430B-9D31-AC117F9BAA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1006,16 +1006,16 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="E2">
-        <v>1.19</v>
+        <v>1.1900000000000002</v>
       </c>
       <c r="F2">
         <v>1.0860000000000001</v>
       </c>
       <c r="G2">
-        <v>1.5090000000000001</v>
+        <v>1.5090000000000003</v>
       </c>
       <c r="H2">
-        <v>1.9129999999999998</v>
+        <v>1.913</v>
       </c>
       <c r="I2">
         <v>1.61</v>
@@ -1027,13 +1027,13 @@
         <v>0.97500000000000009</v>
       </c>
       <c r="L2">
-        <v>1.992</v>
+        <v>1.9920000000000002</v>
       </c>
       <c r="M2">
-        <v>1.831</v>
+        <v>1.8310000000000002</v>
       </c>
       <c r="N2">
-        <v>1.7430000000000001</v>
+        <v>1.7429999999999999</v>
       </c>
       <c r="O2">
         <v>1.6440000000000001</v>
@@ -1045,7 +1045,7 @@
         <v>1.996</v>
       </c>
       <c r="R2">
-        <v>1.3559999999999999</v>
+        <v>1.3539999999999999</v>
       </c>
       <c r="S2">
         <v>1.27</v>
@@ -1060,7 +1060,7 @@
         <v>1.6220000000000001</v>
       </c>
       <c r="W2">
-        <v>1.7510000000000001</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="X2">
         <v>0.86099999999999999</v>
@@ -1069,13 +1069,13 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="Z2">
-        <v>1.6750000000000003</v>
+        <v>1.675</v>
       </c>
       <c r="AA2">
-        <v>2.2570000000000006</v>
+        <v>2.2570000000000001</v>
       </c>
       <c r="AB2">
-        <v>2.0940000000000003</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="AC2">
         <v>2.0880000000000001</v>
@@ -1090,7 +1090,7 @@
         <v>2.806</v>
       </c>
       <c r="AG2">
-        <v>2.972</v>
+        <v>2.9720000000000004</v>
       </c>
       <c r="AH2">
         <v>1.351</v>
@@ -1111,7 +1111,7 @@
         <v>0.36400000000000005</v>
       </c>
       <c r="AN2">
-        <v>1.0790000000000002</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="AO2">
         <v>0.47200000000000003</v>
@@ -1120,13 +1120,13 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="AQ2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AR2">
         <v>1.629</v>
       </c>
       <c r="AS2">
-        <v>1.5840000000000001</v>
+        <v>1.5839999999999999</v>
       </c>
       <c r="AT2">
         <v>1.919</v>
@@ -1135,16 +1135,16 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="AV2">
-        <v>0.84900000000000009</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="AW2">
         <v>0.91700000000000004</v>
       </c>
       <c r="AX2">
-        <v>1.212</v>
+        <v>1.292</v>
       </c>
       <c r="AY2">
-        <v>0.62600000000000011</v>
+        <v>0.63600000000000012</v>
       </c>
       <c r="AZ2">
         <v>1.0620000000000001</v>
@@ -1153,13 +1153,13 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="BB2">
-        <v>0.85299999999999998</v>
+        <v>0.85300000000000009</v>
       </c>
       <c r="BC2">
         <v>1.2170000000000001</v>
       </c>
       <c r="BD2">
-        <v>0.754</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="BE2">
         <v>1.5960000000000001</v>
@@ -1174,10 +1174,10 @@
         <v>1.6360000000000001</v>
       </c>
       <c r="BI2">
-        <v>2.0209999999999999</v>
+        <v>2.0420000000000003</v>
       </c>
       <c r="BJ2">
-        <v>2.794</v>
+        <v>2.7960000000000003</v>
       </c>
       <c r="BK2">
         <v>2.911</v>
@@ -1186,7 +1186,7 @@
         <v>1.9009999999999998</v>
       </c>
       <c r="BM2">
-        <v>2.0219999999999998</v>
+        <v>2.0220000000000002</v>
       </c>
       <c r="BN2">
         <v>2.3970000000000002</v>
@@ -1204,13 +1204,13 @@
         <v>2.399</v>
       </c>
       <c r="BS2">
-        <v>2.0020000000000002</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="BT2">
         <v>2.0730000000000004</v>
       </c>
       <c r="BU2">
-        <v>1.71</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="BV2">
         <v>2.6590000000000003</v>
@@ -1225,7 +1225,7 @@
         <v>2.444</v>
       </c>
       <c r="BZ2">
-        <v>2.456</v>
+        <v>2.4560000000000004</v>
       </c>
       <c r="CA2">
         <v>2.3049999999999997</v>
@@ -1240,10 +1240,10 @@
         <v>1.9990000000000001</v>
       </c>
       <c r="CE2">
-        <v>1.601</v>
+        <v>1.6859999999999999</v>
       </c>
       <c r="CF2">
-        <v>2.8090000000000002</v>
+        <v>2.8089999999999997</v>
       </c>
       <c r="CG2">
         <v>2.4670000000000001</v>
@@ -1258,7 +1258,7 @@
         <v>2.012</v>
       </c>
       <c r="CK2">
-        <v>2.4330000000000003</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="CL2">
         <v>1.5960000000000001</v>
@@ -1276,7 +1276,7 @@
         <v>1.8420000000000001</v>
       </c>
       <c r="CQ2">
-        <v>1.167</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="CR2">
         <v>1.8220000000000001</v>
